--- a/database/AN_pp/expdata/4003.xlsx
+++ b/database/AN_pp/expdata/4003.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F41FA235-F9BD-2C4F-BF27-E6AE58392B82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266823A0-7677-1A4A-AF7E-62BA659BBE51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="15960" xr2:uid="{80AFED73-C7BD-3249-81EA-9C3CEF12E38C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>xF</t>
   </si>
@@ -57,21 +57,9 @@
     <t>obs</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>&lt;y&gt;</t>
-  </si>
-  <si>
     <t>Dependence</t>
   </si>
   <si>
-    <t>xFmin</t>
-  </si>
-  <si>
-    <t>xFmax</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -82,6 +70,12 @@
   </si>
   <si>
     <t>AN</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>gam&gt;2</t>
   </si>
 </sst>
 </file>
@@ -89,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -133,7 +127,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -449,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58535D97-9D86-5C43-A490-6504FDE4C6AA}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,28 +477,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>0.14391799999999999</v>
       </c>
@@ -524,36 +509,25 @@
         <v>500</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <f>ASINH((A2*F2)/(2*E2))</f>
-        <v>3.4661824639558585</v>
-      </c>
-      <c r="L2">
-        <f>AVERAGE(K2:K10)</f>
-        <v>3.5871578812213403</v>
-      </c>
-      <c r="M2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0.18</v>
-      </c>
-      <c r="O2">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>0.16261600000000001</v>
       </c>
@@ -573,32 +547,25 @@
         <v>500</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K10" si="0">ASINH((A3*F3)/(2*E3))</f>
-        <v>3.4850079938592282</v>
-      </c>
-      <c r="M3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0.23</v>
-      </c>
-      <c r="O3">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>0.18220800000000001</v>
       </c>
@@ -618,32 +585,25 @@
         <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
       <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>3.5117463632884252</v>
-      </c>
-      <c r="M4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="O4">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>0.201984</v>
       </c>
@@ -663,32 +623,25 @@
         <v>500</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
       <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>3.5440464815537629</v>
-      </c>
-      <c r="M5" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0.33</v>
-      </c>
-      <c r="O5">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>0.22184200000000001</v>
       </c>
@@ -708,32 +661,25 @@
         <v>500</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
       <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>3.5796337967242358</v>
-      </c>
-      <c r="M6" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0.38</v>
-      </c>
-      <c r="O6">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>0.24548400000000001</v>
       </c>
@@ -753,32 +699,25 @@
         <v>500</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
       <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>3.6286486309066333</v>
-      </c>
-      <c r="M7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0.43</v>
-      </c>
-      <c r="O7">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>0.27857799999999999</v>
       </c>
@@ -798,32 +737,25 @@
         <v>500</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
       <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>3.6994585721554767</v>
-      </c>
-      <c r="M8" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0.48</v>
-      </c>
-      <c r="O8">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>0.32549400000000001</v>
       </c>
@@ -843,32 +775,25 @@
         <v>500</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
       <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>3.7031407788827662</v>
-      </c>
-      <c r="M9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0.53</v>
-      </c>
-      <c r="O9">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>0.39911600000000003</v>
       </c>
@@ -888,29 +813,22 @@
         <v>500</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
       <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>3.6665558496656834</v>
-      </c>
-      <c r="M10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O10">
-        <v>0.65</v>
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/AN_pp/expdata/4003.xlsx
+++ b/database/AN_pp/expdata/4003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266823A0-7677-1A4A-AF7E-62BA659BBE51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CCCB1A-4AD1-F742-8C64-A5868EF75E80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="15960" xr2:uid="{80AFED73-C7BD-3249-81EA-9C3CEF12E38C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
   <si>
     <t>xF</t>
   </si>
@@ -70,12 +70,6 @@
   </si>
   <si>
     <t>AN</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>gam&gt;2</t>
   </si>
 </sst>
 </file>
@@ -443,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58535D97-9D86-5C43-A490-6504FDE4C6AA}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,19 +471,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>0.14391799999999999</v>
       </c>
@@ -515,19 +506,16 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>0.16261600000000001</v>
       </c>
@@ -553,19 +541,16 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>0.18220800000000001</v>
       </c>
@@ -591,19 +576,16 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>0.201984</v>
       </c>
@@ -629,19 +611,16 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>0.22184200000000001</v>
       </c>
@@ -667,19 +646,16 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>0.24548400000000001</v>
       </c>
@@ -705,19 +681,16 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>0.27857799999999999</v>
       </c>
@@ -743,19 +716,16 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>0.32549400000000001</v>
       </c>
@@ -781,19 +751,16 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>0.39911600000000003</v>
       </c>
@@ -819,15 +786,12 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
         <v>0</v>
       </c>
     </row>

--- a/database/AN_pp/expdata/4003.xlsx
+++ b/database/AN_pp/expdata/4003.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/AN_pp/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/AN_pp/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CCCB1A-4AD1-F742-8C64-A5868EF75E80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C90E6F3-51CC-3940-975E-274634121CD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="1820" windowWidth="27640" windowHeight="15960" xr2:uid="{80AFED73-C7BD-3249-81EA-9C3CEF12E38C}"/>
+    <workbookView xWindow="1160" yWindow="1020" windowWidth="27640" windowHeight="15960" xr2:uid="{80AFED73-C7BD-3249-81EA-9C3CEF12E38C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
